--- a/biology/Botanique/Scrophularia_umbrosa/Scrophularia_umbrosa.xlsx
+++ b/biology/Botanique/Scrophularia_umbrosa/Scrophularia_umbrosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Scrophularia umbrosa, la Scrofulaire ailée (aussi appelée scrofulaire des ombrages, scrofulaire de l'ombre), est une plante herbacée vivace de la famille des Scrofulariacées, assez commune en Europe au bord des eaux.
-Elle doit son nom vernaculaire aux ailes de la tige généralement larges de plus d'un millimètre[2].
+Elle doit son nom vernaculaire aux ailes de la tige généralement larges de plus d'un millimètre.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Haute de 50 cm à rarement 2 m, glabre, elle ressemble à la Scrofulaire à oreillettes (Scrophularia auriculata), mais ses feuilles sont dentées en scie, au sommet plus aigu, à la base arrondie, toujours sans oreillette. Les staminodes de ses fleurs sont munis de deux lobes divergents à leur sommet.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Berges des cours d'eau, des étangs, marais, marécages ombragés, forêts humides.
 Elle fleurit de juin à septembre
@@ -575,10 +591,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Synonymie
-Scrophularia aquatica L. rejeté par ITIS[3] et par d'autres auteurs.
+Scrophularia aquatica L. rejeté par ITIS et par d'autres auteurs.
 Scrophularia alata Gilib.
 Scrophularia ehrhartii Steven
 Scrophularia oblongifolia Loisel., 1827
